--- a/results.xlsx
+++ b/results.xlsx
@@ -473,15 +473,15 @@
         <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>3.35619120534744e-05</v>
+        <v>0.0001051046983569008</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[-0.00528374130533571, -0.002375708288440248]</t>
+          <t>[-0.010234895900978924, -0.0005929622694789763]</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.35619120534744e-05</v>
+        <v>0.0001051046983569008</v>
       </c>
     </row>
     <row r="3">
@@ -497,15 +497,15 @@
         <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>5.294830634529184e-07</v>
+        <v>4.01205286793627e-05</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[-0.000724148953853386, -7.135373911691667e-05]</t>
+          <t>[-0.0040409271893243615, 0.004877646576981753]</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5.294830634529184e-07</v>
+        <v>4.01205286793627e-05</v>
       </c>
     </row>
     <row r="4">
@@ -521,15 +521,15 @@
         <v>500</v>
       </c>
       <c r="D4" t="n">
-        <v>2.632641751902022e-07</v>
+        <v>1.912111090086212e-07</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[-0.0004663203449029041, 0.00021403156570898307]</t>
+          <t>[0.0004369222877556034, 1.7607483381532063e-05]</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.632641751902022e-07</v>
+        <v>1.912111090086212e-07</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -473,15 +473,15 @@
         <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0001051046983569008</v>
+        <v>6.290555017472235e-06</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[-0.010234895900978924, -0.0005929622694789763]</t>
+          <t>[-0.0011138546581038258, -0.0022471944326409865]</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.0001051046983569008</v>
+        <v>6.290555017472235e-06</v>
       </c>
     </row>
     <row r="3">
@@ -497,15 +497,15 @@
         <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>4.01205286793627e-05</v>
+        <v>6.906768732620526e-06</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[-0.0040409271893243615, 0.004877646576981753]</t>
+          <t>[-6.452749102492383e-05, 0.0026272809015258636]</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>4.01205286793627e-05</v>
+        <v>6.906768732620526e-06</v>
       </c>
     </row>
     <row r="4">
@@ -521,15 +521,15 @@
         <v>500</v>
       </c>
       <c r="D4" t="n">
-        <v>1.912111090086212e-07</v>
+        <v>6.052922864958585e-07</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[0.0004369222877556034, 1.7607483381532063e-05]</t>
+          <t>[-0.0006819254378757078, 0.00037452634576740085]</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.912111090086212e-07</v>
+        <v>6.052922864958585e-07</v>
       </c>
     </row>
   </sheetData>
